--- a/data/trans_orig/Q19B_R-Habitat-trans_orig.xlsx
+++ b/data/trans_orig/Q19B_R-Habitat-trans_orig.xlsx
@@ -685,47 +685,47 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>32,67; 42,44</t>
+          <t>32,84; 42,27</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>44,88; 56,95</t>
+          <t>44,86; 58,0</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>29,88; 41,96</t>
+          <t>30,2; 42,82</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>36,31; 48,49</t>
+          <t>36,2; 49,18</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>39,7; 52,78</t>
+          <t>40,06; 53,56</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>25,01; 36,16</t>
+          <t>24,62; 36,07</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>36,09; 44,55</t>
+          <t>35,85; 43,73</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>44,04; 53,45</t>
+          <t>44,19; 53,13</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>28,87; 36,42</t>
+          <t>29,14; 37,25</t>
         </is>
       </c>
     </row>
@@ -795,47 +795,47 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>35,53; 45,41</t>
+          <t>35,47; 44,89</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>35,51; 44,54</t>
+          <t>35,7; 44,51</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>31,24; 41,58</t>
+          <t>31,71; 42,39</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>34,04; 44,54</t>
+          <t>34,73; 45,21</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>36,01; 46,23</t>
+          <t>35,88; 45,28</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>26,87; 35,0</t>
+          <t>26,87; 35,43</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>35,87; 43,03</t>
+          <t>36,14; 43,01</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>36,77; 43,75</t>
+          <t>37,08; 43,59</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>30,26; 36,87</t>
+          <t>30,38; 36,99</t>
         </is>
       </c>
     </row>
@@ -905,47 +905,47 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>34,63; 45,98</t>
+          <t>34,93; 48,0</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>34,62; 45,21</t>
+          <t>34,34; 45,1</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>27,44; 35,7</t>
+          <t>27,64; 35,8</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>36,3; 47,66</t>
+          <t>36,43; 48,56</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>32,3; 44,67</t>
+          <t>31,95; 44,89</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>23,29; 31,31</t>
+          <t>23,08; 30,59</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>37,05; 45,43</t>
+          <t>37,03; 45,35</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>34,72; 43,0</t>
+          <t>34,91; 43,24</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>26,43; 32,74</t>
+          <t>26,54; 32,53</t>
         </is>
       </c>
     </row>
@@ -1015,47 +1015,47 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>29,43; 36,73</t>
+          <t>29,23; 36,54</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>39,57; 50,26</t>
+          <t>39,63; 50,76</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>33,87; 46,63</t>
+          <t>33,6; 46,9</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>34,81; 44,67</t>
+          <t>34,39; 44,72</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>31,84; 41,01</t>
+          <t>32,15; 41,05</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>25,13; 34,44</t>
+          <t>25,08; 33,41</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>33,28; 39,8</t>
+          <t>33,21; 39,82</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>37,0; 44,05</t>
+          <t>36,8; 43,99</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>30,41; 37,71</t>
+          <t>30,23; 38,07</t>
         </is>
       </c>
     </row>
@@ -1125,47 +1125,47 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>35,07; 39,78</t>
+          <t>34,89; 39,54</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>40,54; 45,91</t>
+          <t>40,72; 45,88</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>33,03; 38,76</t>
+          <t>33,03; 38,63</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>37,53; 43,15</t>
+          <t>37,6; 43,25</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>36,85; 42,23</t>
+          <t>36,97; 42,18</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>26,65; 30,99</t>
+          <t>26,78; 31,09</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>36,89; 40,53</t>
+          <t>36,9; 40,5</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>39,55; 43,51</t>
+          <t>39,6; 43,38</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>30,69; 34,12</t>
+          <t>30,52; 33,89</t>
         </is>
       </c>
     </row>

--- a/data/trans_orig/Q19B_R-Habitat-trans_orig.xlsx
+++ b/data/trans_orig/Q19B_R-Habitat-trans_orig.xlsx
@@ -531,7 +531,7 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Tiempo medio en meses desde la última vez que acudió al dentista, protésico o higienista dental</t>
+          <t>Tiempo medio en meses desde la última consulta al dentista, protésico o higienista dental</t>
         </is>
       </c>
       <c r="B1" s="2" t="n"/>
